--- a/data/trans_dic/P16A13-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.03477664881743488</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0967751788737746</v>
+        <v>0.09677517887377461</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02111556021842056</v>
+        <v>0.02184022207698942</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03321073254610393</v>
+        <v>0.03267556301186332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01964079994494128</v>
+        <v>0.02024076765317155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0608805049301282</v>
+        <v>0.063149239171694</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04434701167819029</v>
+        <v>0.04382941323463252</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04589221809037694</v>
+        <v>0.04445797254436756</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03049006886051817</v>
+        <v>0.02822013476589556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08850312400207104</v>
+        <v>0.08950346314735037</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03784387234517052</v>
+        <v>0.0382302144874974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04256471518755309</v>
+        <v>0.04261276233451133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0270277771951212</v>
+        <v>0.0276300000086116</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08220909298231747</v>
+        <v>0.08317291099312318</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05235062628888369</v>
+        <v>0.04979668741181582</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06253333938640207</v>
+        <v>0.06059971529889782</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04185915468461712</v>
+        <v>0.04179951572690849</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.109465205644051</v>
+        <v>0.1100277018040439</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0737948749979896</v>
+        <v>0.07356907206520386</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07359049308699074</v>
+        <v>0.07540792699984621</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05325461734184243</v>
+        <v>0.0511419595184673</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1267443387310202</v>
+        <v>0.1274644224543608</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06068244662541549</v>
+        <v>0.06031302270285102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06258191604022414</v>
+        <v>0.06276628271011558</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04271051722105784</v>
+        <v>0.04375405424161591</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.113730398450374</v>
+        <v>0.1128886208969415</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02765551414691592</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04760651548200648</v>
+        <v>0.04760651548200649</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02951342617092931</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.021690997155521</v>
+        <v>0.02131411065474344</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02165084200670961</v>
+        <v>0.0222287072175744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01818286483646432</v>
+        <v>0.01783116967362188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03726518594902112</v>
+        <v>0.03599373993759129</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02073155811506485</v>
+        <v>0.02066560573173543</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03360149896261211</v>
+        <v>0.03218320173286927</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02409802121903144</v>
+        <v>0.02380916069307295</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07437365041826051</v>
+        <v>0.07326895790131499</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02376605581274053</v>
+        <v>0.02369238806281707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03048894246334492</v>
+        <v>0.03161572725494387</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02363598323091686</v>
+        <v>0.02282617461330803</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0603819130168294</v>
+        <v>0.05991442199828506</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04349716958509582</v>
+        <v>0.0441806036460068</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04656521053153954</v>
+        <v>0.04526612633854647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03984727751735784</v>
+        <v>0.04021839143609739</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06293750495402631</v>
+        <v>0.06052298463351394</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04223908527577482</v>
+        <v>0.04171606561718685</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06073467894027049</v>
+        <v>0.06003900917614521</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04601717668769584</v>
+        <v>0.04757144077852669</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09896183237293761</v>
+        <v>0.09947132882665495</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03859203892333108</v>
+        <v>0.03911632365407765</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.048770273533861</v>
+        <v>0.04892047444086168</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04074964628271623</v>
+        <v>0.03997451818799426</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07722842819393202</v>
+        <v>0.07789467007213911</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04952085692544048</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07061738744567345</v>
+        <v>0.07061738744567346</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02469806011453556</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01350409176451973</v>
+        <v>0.01456517023825061</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02769563566029191</v>
+        <v>0.02747757444264754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02390059355438805</v>
+        <v>0.02391295012727518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0502583149747562</v>
+        <v>0.04890823603307357</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01888516738376042</v>
+        <v>0.01808559796051998</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03645491008783688</v>
+        <v>0.03649655786870386</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03508195727294815</v>
+        <v>0.03500030764810307</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06025328957041141</v>
+        <v>0.05891240653350938</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01874375331025702</v>
+        <v>0.01904692578034078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03588919875945722</v>
+        <v>0.03535293979112188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03275843256037767</v>
+        <v>0.03311318317160981</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05830564547038631</v>
+        <v>0.0572395721169646</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03246406141371388</v>
+        <v>0.03231626482964356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05700999440140734</v>
+        <v>0.05458189124279992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05245181510519439</v>
+        <v>0.05347237212137071</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07890260386823715</v>
+        <v>0.07839865044221517</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03981694489981874</v>
+        <v>0.03881820765867918</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06805275516770162</v>
+        <v>0.0662885914655959</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06741852670632313</v>
+        <v>0.06956308324514966</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08561948281890973</v>
+        <v>0.08430680305236865</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03190143751530082</v>
+        <v>0.03291754523738688</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05606328229431271</v>
+        <v>0.05606375573420925</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05476392200896311</v>
+        <v>0.05401389229445224</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07751822384909074</v>
+        <v>0.07650199303233199</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.03926718287506266</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07716173854059591</v>
+        <v>0.07716173854059589</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01949264589686379</v>
@@ -1105,7 +1105,7 @@
         <v>0.02906379741335255</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07180075170421552</v>
+        <v>0.0718007517042155</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008999561515160447</v>
+        <v>0.01018001023752306</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03159404983519137</v>
+        <v>0.0335240790770512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009668271683878203</v>
+        <v>0.009624055068542876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05301051978626641</v>
+        <v>0.05430365055691598</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007668646074304548</v>
+        <v>0.007758955318264233</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04487862523721665</v>
+        <v>0.04532874329102406</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02232736956765564</v>
+        <v>0.02184748241004975</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06538373854882081</v>
+        <v>0.06543473973143765</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01101160657599603</v>
+        <v>0.01202824167835799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04557748166476985</v>
+        <v>0.04424295455566317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01844798759781548</v>
+        <v>0.01874565534748392</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.062872764647857</v>
+        <v>0.06235970411609599</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03684173951272588</v>
+        <v>0.0367811988688748</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08210308619865256</v>
+        <v>0.07804823993607879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0331932231333897</v>
+        <v>0.03479147288513897</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08168158723622336</v>
+        <v>0.08170101679125957</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04111749277375808</v>
+        <v>0.04185887014629134</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09663773347308616</v>
+        <v>0.09829389595597549</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06679679225059963</v>
+        <v>0.06577563418445337</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09108200125965497</v>
+        <v>0.09233859063180726</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03090648938910656</v>
+        <v>0.03284091819629185</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08073523642772593</v>
+        <v>0.07983149311459614</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04374359384314402</v>
+        <v>0.04381137981851056</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0821964886144972</v>
+        <v>0.08246143787281161</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02911787964038487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06245288733049312</v>
+        <v>0.06245288733049311</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03574208140712861</v>
@@ -1229,7 +1229,7 @@
         <v>0.04021621427818321</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08324201010959083</v>
+        <v>0.08324201010959084</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03121598556455995</v>
@@ -1241,7 +1241,7 @@
         <v>0.03479543957340715</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07315716200219062</v>
+        <v>0.07315716200219063</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02148058779168017</v>
+        <v>0.021230760597586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03444761274939732</v>
+        <v>0.0344175190934558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02377130380699572</v>
+        <v>0.02404490201605088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05547063883225207</v>
+        <v>0.05557153175480841</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03000519333610313</v>
+        <v>0.02997568162878331</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04648105518651281</v>
+        <v>0.0461753259911064</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03298191480494209</v>
+        <v>0.03401417427222942</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07653346299015634</v>
+        <v>0.07617131066088378</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02675881681780589</v>
+        <v>0.02729450554620363</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04174094659088234</v>
+        <v>0.04233631978750278</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02995781237004604</v>
+        <v>0.03014517948210645</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06824060231304432</v>
+        <v>0.06852174549565872</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0329357997955509</v>
+        <v>0.03293496998499414</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04934568187568703</v>
+        <v>0.04865591255452702</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03617245937835148</v>
+        <v>0.03548467574058216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07154473365003623</v>
+        <v>0.06984116140430349</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04210364467973399</v>
+        <v>0.04259226187867528</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06201238051186935</v>
+        <v>0.06171408085177277</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04781039490529342</v>
+        <v>0.04786204477788773</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08943746732446878</v>
+        <v>0.09015433426343339</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03528078816738946</v>
+        <v>0.03602519235594197</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05309676317082807</v>
+        <v>0.05288160237390163</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03959623789125716</v>
+        <v>0.03969804811091605</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07865076634885733</v>
+        <v>0.07868518840237422</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12334</v>
+        <v>12758</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34497</v>
+        <v>33941</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22155</v>
+        <v>22832</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30363</v>
+        <v>31495</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>40903</v>
+        <v>40425</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>51111</v>
+        <v>49514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>38404</v>
+        <v>35545</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>55189</v>
+        <v>55813</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>57011</v>
+        <v>57593</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>91618</v>
+        <v>91721</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>64530</v>
+        <v>65968</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>92265</v>
+        <v>93347</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30580</v>
+        <v>29088</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64955</v>
+        <v>62947</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47217</v>
+        <v>47150</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>54595</v>
+        <v>54875</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>68063</v>
+        <v>67855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>81959</v>
+        <v>83983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>67077</v>
+        <v>64416</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79035</v>
+        <v>79484</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>91417</v>
+        <v>90860</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>134704</v>
+        <v>135101</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>101974</v>
+        <v>104465</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>127642</v>
+        <v>126697</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23381</v>
+        <v>22974</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21099</v>
+        <v>21663</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16525</v>
+        <v>16205</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35780</v>
+        <v>34559</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21924</v>
+        <v>21855</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36699</v>
+        <v>35150</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24254</v>
+        <v>23963</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>82945</v>
+        <v>81713</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>50751</v>
+        <v>50593</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>63012</v>
+        <v>65340</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45270</v>
+        <v>43719</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>125316</v>
+        <v>124345</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>46885</v>
+        <v>47622</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45379</v>
+        <v>44113</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36214</v>
+        <v>36551</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60429</v>
+        <v>58110</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44669</v>
+        <v>44116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>66333</v>
+        <v>65573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>46315</v>
+        <v>47879</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>110367</v>
+        <v>110935</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>82411</v>
+        <v>83530</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>100794</v>
+        <v>101104</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>78048</v>
+        <v>76563</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>160279</v>
+        <v>161661</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15132</v>
+        <v>16321</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24425</v>
+        <v>24233</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19688</v>
+        <v>19699</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52594</v>
+        <v>51181</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18771</v>
+        <v>17976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31889</v>
+        <v>31926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27050</v>
+        <v>26987</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>63124</v>
+        <v>61719</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>39634</v>
+        <v>40275</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>63046</v>
+        <v>62104</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>52244</v>
+        <v>52810</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>122099</v>
+        <v>119867</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36378</v>
+        <v>36213</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50278</v>
+        <v>48136</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43208</v>
+        <v>44048</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>82570</v>
+        <v>82043</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39576</v>
+        <v>38583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>59530</v>
+        <v>57987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>51984</v>
+        <v>53637</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>89699</v>
+        <v>88323</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67456</v>
+        <v>69605</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>98485</v>
+        <v>98486</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>87338</v>
+        <v>86142</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>162333</v>
+        <v>160204</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4025</v>
+        <v>4553</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15893</v>
+        <v>16863</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4899</v>
+        <v>4877</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51735</v>
+        <v>52997</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2616</v>
+        <v>2647</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20234</v>
+        <v>20437</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10934</v>
+        <v>10699</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>59410</v>
+        <v>59457</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8681</v>
+        <v>9483</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>43476</v>
+        <v>42203</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18382</v>
+        <v>18678</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>118488</v>
+        <v>117521</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16476</v>
+        <v>16449</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41300</v>
+        <v>39260</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16819</v>
+        <v>17629</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>79715</v>
+        <v>79734</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14028</v>
+        <v>14280</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>43571</v>
+        <v>44318</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32710</v>
+        <v>32210</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82761</v>
+        <v>83903</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>24365</v>
+        <v>25890</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>77013</v>
+        <v>76151</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>43586</v>
+        <v>43654</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>154905</v>
+        <v>155404</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>69378</v>
+        <v>68571</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>117060</v>
+        <v>116957</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>80045</v>
+        <v>80966</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>193109</v>
+        <v>193460</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>99466</v>
+        <v>99368</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>164149</v>
+        <v>163069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>116320</v>
+        <v>119961</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>282800</v>
+        <v>281461</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>175131</v>
+        <v>178637</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>289253</v>
+        <v>293379</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>206531</v>
+        <v>207823</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>489722</v>
+        <v>491739</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>106376</v>
+        <v>106374</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>167686</v>
+        <v>165342</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>121803</v>
+        <v>119487</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>249068</v>
+        <v>243137</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>139572</v>
+        <v>141192</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>218998</v>
+        <v>217945</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>168617</v>
+        <v>168799</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>330481</v>
+        <v>333130</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>230905</v>
+        <v>235777</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>367945</v>
+        <v>366454</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>272979</v>
+        <v>273681</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>564429</v>
+        <v>564676</v>
       </c>
     </row>
     <row r="24">
